--- a/第10组/项目计划表.xlsx
+++ b/第10组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -76,6 +76,14 @@
   </si>
   <si>
     <t>查看需求分析，分析&lt;定位&gt;功能模块</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：已进行项目需求分析讨论，并通过分析确定每个功能模块的功能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时未得知如何设计用例图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +151,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -151,6 +159,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -463,7 +474,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -474,12 +485,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -502,7 +513,9 @@
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -512,7 +525,9 @@
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="2"/>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -522,7 +537,9 @@
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -532,7 +549,9 @@
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -542,30 +561,34 @@
       <c r="B7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
+      <c r="C7" s="3">
+        <v>0.6</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -612,18 +635,18 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/第10组/项目计划表.xlsx
+++ b/第10组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -84,6 +84,33 @@
   </si>
   <si>
     <t>暂时未得知如何设计用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期：2018.10.10 第六周周三</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴瑞鹏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王志豪</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：已修改完每个功能的用例图，并且结合成一个整体的用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改功能用例图并组合成整体用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改功能用例图</t>
+  </si>
+  <si>
+    <t>修改功能用例图</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -164,11 +191,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -485,12 +512,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -569,26 +596,26 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -605,55 +632,153 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
+    <mergeCell ref="A26:D27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="A17:D18"/>
+    <mergeCell ref="A19:D19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/项目计划表.xlsx
+++ b/第10组/项目计划表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>修改功能用例图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴瑞鹏</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>根据用例图编写用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写用例规约以及示图</t>
+  </si>
+  <si>
+    <t>日期：2018.10.11 第六周周四</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -118,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +155,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,7 +172,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -172,13 +195,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -191,11 +227,17 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -512,12 +554,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
@@ -596,26 +638,26 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
@@ -692,26 +734,26 @@
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
@@ -728,51 +770,139 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A28" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A35:D36"/>
     <mergeCell ref="A26:D27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A10:D10"/>
@@ -782,7 +912,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/第10组/项目计划表.xlsx
+++ b/第10组/项目计划表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7CC690-10CF-432F-B3D9-09ED1CAD080E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="3852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -126,13 +132,30 @@
   </si>
   <si>
     <t>日期：2018.10.11 第六周周四</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>总结：组内进行讨论并开始编写规约，预计1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.11上午完成</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -214,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -239,6 +262,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -248,6 +274,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -296,7 +325,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,9 +358,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -364,6 +410,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -539,21 +602,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:D28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26:D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="46.5" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="46.44140625" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -561,7 +624,7 @@
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -575,7 +638,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -587,7 +650,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -599,7 +662,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -611,7 +674,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -623,7 +686,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -637,7 +700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>17</v>
       </c>
@@ -645,13 +708,13 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
@@ -659,7 +722,7 @@
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>1</v>
       </c>
@@ -673,7 +736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -685,7 +748,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>21</v>
       </c>
@@ -697,7 +760,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>9</v>
       </c>
@@ -709,7 +772,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -721,7 +784,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -733,7 +796,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>22</v>
       </c>
@@ -741,13 +804,13 @@
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>19</v>
       </c>
@@ -755,7 +818,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>1</v>
       </c>
@@ -769,71 +832,81 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C22" s="2"/>
+      <c r="C22" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" s="3">
+        <v>0.5</v>
+      </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="7" t="s">
-        <v>5</v>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>29</v>
       </c>
@@ -841,7 +914,7 @@
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>1</v>
       </c>
@@ -855,37 +928,37 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
         <v>5</v>
       </c>
@@ -893,7 +966,7 @@
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -917,12 +990,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -931,12 +1004,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/第10组/项目计划表.xlsx
+++ b/第10组/项目计划表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF7CC690-10CF-432F-B3D9-09ED1CAD080E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A181DA21-659F-429B-BCF5-E58DE41A4370}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14760" windowHeight="3852" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="33">
   <si>
     <t>日期：2018.9.29 第五周周四</t>
   </si>
@@ -37,9 +37,6 @@
   </si>
   <si>
     <t>备注</t>
-  </si>
-  <si>
-    <t>总结：</t>
   </si>
   <si>
     <t>日期：2018.10.08 第六周周一</t>
@@ -149,6 +146,18 @@
       </rPr>
       <t>0.11上午完成</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>继续编写用例规约</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助编写用例规约以及示图</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结：用例规约全部编写完成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -606,7 +615,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:D27"/>
+      <selection activeCell="A35" sqref="A35:D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -640,10 +649,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
@@ -652,10 +661,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -664,10 +673,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -676,10 +685,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3">
         <v>1</v>
@@ -688,21 +697,21 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="3">
         <v>0.6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -716,7 +725,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -738,10 +747,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="3">
         <v>1</v>
@@ -750,10 +759,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
@@ -762,10 +771,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="3">
         <v>1</v>
@@ -774,10 +783,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="3">
         <v>1</v>
@@ -786,10 +795,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="3">
         <v>1</v>
@@ -798,7 +807,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -812,7 +821,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -834,10 +843,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C21" s="3">
         <v>0.5</v>
@@ -846,10 +855,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="3">
         <v>0.5</v>
@@ -858,10 +867,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C23" s="3">
         <v>0.5</v>
@@ -870,10 +879,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C24" s="3">
         <v>0.5</v>
@@ -882,10 +891,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="3">
         <v>0.5</v>
@@ -894,7 +903,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -908,7 +917,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
@@ -929,38 +938,68 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="A30" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1</v>
+      </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1</v>
+      </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1</v>
+      </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
